--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.95321533333333</v>
+        <v>41.15160733333332</v>
       </c>
       <c r="H2">
-        <v>143.859646</v>
+        <v>123.454822</v>
       </c>
       <c r="I2">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="J2">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N2">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O2">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P2">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q2">
-        <v>19432.87075945105</v>
+        <v>18491.81826141694</v>
       </c>
       <c r="R2">
-        <v>174895.8368350595</v>
+        <v>166426.3643527525</v>
       </c>
       <c r="S2">
-        <v>0.5842674533937804</v>
+        <v>0.4906002743897973</v>
       </c>
       <c r="T2">
-        <v>0.5842674533937804</v>
+        <v>0.4906002743897972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.95321533333333</v>
+        <v>41.15160733333332</v>
       </c>
       <c r="H3">
-        <v>143.859646</v>
+        <v>123.454822</v>
       </c>
       <c r="I3">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="J3">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.893533</v>
       </c>
       <c r="O3">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P3">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q3">
-        <v>270.0330752299242</v>
+        <v>231.7320121629028</v>
       </c>
       <c r="R3">
-        <v>2430.297677069318</v>
+        <v>2085.588109466126</v>
       </c>
       <c r="S3">
-        <v>0.008118797225054758</v>
+        <v>0.006148004871388381</v>
       </c>
       <c r="T3">
-        <v>0.008118797225054758</v>
+        <v>0.00614800487138838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.95321533333333</v>
+        <v>41.15160733333332</v>
       </c>
       <c r="H4">
-        <v>143.859646</v>
+        <v>123.454822</v>
       </c>
       <c r="I4">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="J4">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N4">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O4">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P4">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q4">
-        <v>93.92732154783444</v>
+        <v>317.2085781602697</v>
       </c>
       <c r="R4">
-        <v>845.3458939305099</v>
+        <v>2854.877203442427</v>
       </c>
       <c r="S4">
-        <v>0.002824012861721014</v>
+        <v>0.008415755188819443</v>
       </c>
       <c r="T4">
-        <v>0.002824012861721014</v>
+        <v>0.008415755188819441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.95321533333333</v>
+        <v>41.15160733333332</v>
       </c>
       <c r="H5">
-        <v>143.859646</v>
+        <v>123.454822</v>
       </c>
       <c r="I5">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="J5">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N5">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O5">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P5">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q5">
-        <v>56.40066973085844</v>
+        <v>55.8121692242871</v>
       </c>
       <c r="R5">
-        <v>507.606027577726</v>
+        <v>502.3095230185839</v>
       </c>
       <c r="S5">
-        <v>0.001695738940543605</v>
+        <v>0.001480734081886166</v>
       </c>
       <c r="T5">
-        <v>0.001695738940543605</v>
+        <v>0.001480734081886165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.95321533333333</v>
+        <v>41.15160733333332</v>
       </c>
       <c r="H6">
-        <v>143.859646</v>
+        <v>123.454822</v>
       </c>
       <c r="I6">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="J6">
-        <v>0.6016112859309785</v>
+        <v>0.511199339644863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N6">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O6">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P6">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q6">
-        <v>156.4988188250526</v>
+        <v>171.6719408372275</v>
       </c>
       <c r="R6">
-        <v>1408.489369425474</v>
+        <v>1545.047467535048</v>
       </c>
       <c r="S6">
-        <v>0.004705283509878655</v>
+        <v>0.004554571112971738</v>
       </c>
       <c r="T6">
-        <v>0.004705283509878654</v>
+        <v>0.004554571112971737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>6.947404000000001</v>
       </c>
       <c r="I7">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="J7">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N7">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O7">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P7">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q7">
-        <v>938.4702923966133</v>
+        <v>1040.624659898996</v>
       </c>
       <c r="R7">
-        <v>8446.232631569521</v>
+        <v>9365.621939090968</v>
       </c>
       <c r="S7">
-        <v>0.02821598798302176</v>
+        <v>0.02760846642909401</v>
       </c>
       <c r="T7">
-        <v>0.02821598798302176</v>
+        <v>0.027608466429094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>6.947404000000001</v>
       </c>
       <c r="I8">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="J8">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>16.893533</v>
       </c>
       <c r="O8">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P8">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q8">
         <v>13.04068874870356</v>
@@ -948,10 +948,10 @@
         <v>117.366198738332</v>
       </c>
       <c r="S8">
-        <v>0.0003920805165649743</v>
+        <v>0.0003459781719623972</v>
       </c>
       <c r="T8">
-        <v>0.0003920805165649743</v>
+        <v>0.0003459781719623972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>6.947404000000001</v>
       </c>
       <c r="I9">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="J9">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N9">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O9">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P9">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q9">
-        <v>4.536025685971111</v>
+        <v>17.85087134745511</v>
       </c>
       <c r="R9">
-        <v>40.82423117374</v>
+        <v>160.657842127096</v>
       </c>
       <c r="S9">
-        <v>0.0001363798590994171</v>
+        <v>0.0004735955251859256</v>
       </c>
       <c r="T9">
-        <v>0.0001363798590994171</v>
+        <v>0.0004735955251859256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>6.947404000000001</v>
       </c>
       <c r="I10">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="J10">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N10">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O10">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P10">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q10">
-        <v>2.723753668147111</v>
+        <v>3.140822540876445</v>
       </c>
       <c r="R10">
-        <v>24.513783013324</v>
+        <v>28.267402867888</v>
       </c>
       <c r="S10">
-        <v>8.189220414520142E-05</v>
+        <v>8.332811725598113E-05</v>
       </c>
       <c r="T10">
-        <v>8.18922041452014E-05</v>
+        <v>8.332811725598111E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>6.947404000000001</v>
       </c>
       <c r="I11">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="J11">
-        <v>0.0290535724960843</v>
+        <v>0.02876767613861272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N11">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O11">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P11">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q11">
-        <v>7.557786704830666</v>
+        <v>9.660816071326224</v>
       </c>
       <c r="R11">
-        <v>68.020080343476</v>
+        <v>86.94734464193601</v>
       </c>
       <c r="S11">
-        <v>0.00022723193325295</v>
+        <v>0.0002563078951144112</v>
       </c>
       <c r="T11">
-        <v>0.0002272319332529499</v>
+        <v>0.0002563078951144112</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.48034066666667</v>
+        <v>15.45528</v>
       </c>
       <c r="H12">
-        <v>43.441022</v>
+        <v>46.36584</v>
       </c>
       <c r="I12">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="J12">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N12">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O12">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P12">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q12">
-        <v>5868.106794760708</v>
+        <v>6944.95907837392</v>
       </c>
       <c r="R12">
-        <v>52812.96115284636</v>
+        <v>62504.63170536527</v>
       </c>
       <c r="S12">
-        <v>0.1764301247951298</v>
+        <v>0.1842543973398904</v>
       </c>
       <c r="T12">
-        <v>0.1764301247951298</v>
+        <v>0.1842543973398904</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.48034066666667</v>
+        <v>15.45528</v>
       </c>
       <c r="H13">
-        <v>43.441022</v>
+        <v>46.36584</v>
       </c>
       <c r="I13">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="J13">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>16.893533</v>
       </c>
       <c r="O13">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P13">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q13">
-        <v>81.54137096785846</v>
+        <v>87.03142756808001</v>
       </c>
       <c r="R13">
-        <v>733.8723387107261</v>
+        <v>783.28284811272</v>
       </c>
       <c r="S13">
-        <v>0.002451617661196961</v>
+        <v>0.002309001832152123</v>
       </c>
       <c r="T13">
-        <v>0.002451617661196961</v>
+        <v>0.002309001832152123</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.48034066666667</v>
+        <v>15.45528</v>
       </c>
       <c r="H14">
-        <v>43.441022</v>
+        <v>46.36584</v>
       </c>
       <c r="I14">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="J14">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N14">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O14">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P14">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q14">
-        <v>28.36305354011889</v>
+        <v>119.13380087824</v>
       </c>
       <c r="R14">
-        <v>255.26748186107</v>
+        <v>1072.20420790416</v>
       </c>
       <c r="S14">
-        <v>0.0008527617595715867</v>
+        <v>0.003160699211602866</v>
       </c>
       <c r="T14">
-        <v>0.0008527617595715863</v>
+        <v>0.003160699211602865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.48034066666667</v>
+        <v>15.45528</v>
       </c>
       <c r="H15">
-        <v>43.441022</v>
+        <v>46.36584</v>
       </c>
       <c r="I15">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="J15">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N15">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O15">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P15">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q15">
-        <v>17.03120230528689</v>
+        <v>20.96133683872</v>
       </c>
       <c r="R15">
-        <v>153.280820747582</v>
+        <v>188.65203154848</v>
       </c>
       <c r="S15">
-        <v>0.00051205904275902</v>
+        <v>0.0005561182496644876</v>
       </c>
       <c r="T15">
-        <v>0.0005120590427590198</v>
+        <v>0.0005561182496644874</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.48034066666667</v>
+        <v>15.45528</v>
       </c>
       <c r="H16">
-        <v>43.441022</v>
+        <v>46.36584</v>
       </c>
       <c r="I16">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="J16">
-        <v>0.1816674087156862</v>
+        <v>0.1919907736781588</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N16">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O16">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P16">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q16">
-        <v>47.25764883053533</v>
+        <v>64.47470914784</v>
       </c>
       <c r="R16">
-        <v>425.318839474818</v>
+        <v>580.27238233056</v>
       </c>
       <c r="S16">
-        <v>0.001420845457028832</v>
+        <v>0.001710557044848921</v>
       </c>
       <c r="T16">
-        <v>0.001420845457028831</v>
+        <v>0.001710557044848921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04719266666666667</v>
+        <v>0.003444</v>
       </c>
       <c r="H17">
-        <v>0.141578</v>
+        <v>0.010332</v>
       </c>
       <c r="I17">
-        <v>0.0005920695970538957</v>
+        <v>4.27825458061956E-05</v>
       </c>
       <c r="J17">
-        <v>0.0005920695970538957</v>
+        <v>4.278254580619561E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N17">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O17">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P17">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q17">
-        <v>19.12466110462667</v>
+        <v>1.547590148216</v>
       </c>
       <c r="R17">
-        <v>172.12194994164</v>
+        <v>13.928311333944</v>
       </c>
       <c r="S17">
-        <v>0.0005750008415604238</v>
+        <v>4.105859903143666E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005750008415604237</v>
+        <v>4.105859903143666E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04719266666666667</v>
+        <v>0.003444</v>
       </c>
       <c r="H18">
-        <v>0.141578</v>
+        <v>0.010332</v>
       </c>
       <c r="I18">
-        <v>0.0005920695970538957</v>
+        <v>4.27825458061956E-05</v>
       </c>
       <c r="J18">
-        <v>0.0005920695970538957</v>
+        <v>4.278254580619561E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>16.893533</v>
       </c>
       <c r="O18">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P18">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q18">
-        <v>0.2657502905637778</v>
+        <v>0.019393775884</v>
       </c>
       <c r="R18">
-        <v>2.391752615074</v>
+        <v>0.174543982956</v>
       </c>
       <c r="S18">
-        <v>7.990031294313088E-06</v>
+        <v>5.145298118139504E-07</v>
       </c>
       <c r="T18">
-        <v>7.990031294313088E-06</v>
+        <v>5.145298118139505E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04719266666666667</v>
+        <v>0.003444</v>
       </c>
       <c r="H19">
-        <v>0.141578</v>
+        <v>0.010332</v>
       </c>
       <c r="I19">
-        <v>0.0005920695970538957</v>
+        <v>4.27825458061956E-05</v>
       </c>
       <c r="J19">
-        <v>0.0005920695970538957</v>
+        <v>4.278254580619561E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N19">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O19">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P19">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q19">
-        <v>0.09243761332555556</v>
+        <v>0.02654735535199999</v>
       </c>
       <c r="R19">
-        <v>0.83193851993</v>
+        <v>0.238926198168</v>
       </c>
       <c r="S19">
-        <v>2.779223389279977E-06</v>
+        <v>7.043190472615357E-07</v>
       </c>
       <c r="T19">
-        <v>2.779223389279977E-06</v>
+        <v>7.043190472615357E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.04719266666666667</v>
+        <v>0.003444</v>
       </c>
       <c r="H20">
-        <v>0.141578</v>
+        <v>0.010332</v>
       </c>
       <c r="I20">
-        <v>0.0005920695970538957</v>
+        <v>4.27825458061956E-05</v>
       </c>
       <c r="J20">
-        <v>0.0005920695970538957</v>
+        <v>4.278254580619561E-05</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N20">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O20">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P20">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q20">
-        <v>0.05550614255755555</v>
+        <v>0.004670950256</v>
       </c>
       <c r="R20">
-        <v>0.499555283018</v>
+        <v>0.042038552304</v>
       </c>
       <c r="S20">
-        <v>1.668844143577849E-06</v>
+        <v>1.239234262882649E-07</v>
       </c>
       <c r="T20">
-        <v>1.668844143577849E-06</v>
+        <v>1.239234262882649E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.04719266666666667</v>
+        <v>0.003444</v>
       </c>
       <c r="H21">
-        <v>0.141578</v>
+        <v>0.010332</v>
       </c>
       <c r="I21">
-        <v>0.0005920695970538957</v>
+        <v>4.27825458061956E-05</v>
       </c>
       <c r="J21">
-        <v>0.0005920695970538957</v>
+        <v>4.278254580619561E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N21">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O21">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P21">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q21">
-        <v>0.1540167127313333</v>
+        <v>0.014367316432</v>
       </c>
       <c r="R21">
-        <v>1.386150414582</v>
+        <v>0.129305847888</v>
       </c>
       <c r="S21">
-        <v>4.630656666300988E-06</v>
+        <v>3.811744893951894E-07</v>
       </c>
       <c r="T21">
-        <v>4.630656666300987E-06</v>
+        <v>3.811744893951894E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.91142166666667</v>
+        <v>21.57398566666667</v>
       </c>
       <c r="H22">
-        <v>44.734265</v>
+        <v>64.721957</v>
       </c>
       <c r="I22">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="J22">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N22">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O22">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P22">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q22">
-        <v>6042.800843983967</v>
+        <v>9694.450544566356</v>
       </c>
       <c r="R22">
-        <v>54385.2075958557</v>
+        <v>87250.05490109719</v>
       </c>
       <c r="S22">
-        <v>0.1816824649422016</v>
+        <v>0.2572002401270699</v>
       </c>
       <c r="T22">
-        <v>0.1816824649422015</v>
+        <v>0.2572002401270698</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.91142166666667</v>
+        <v>21.57398566666667</v>
       </c>
       <c r="H23">
-        <v>44.734265</v>
+        <v>64.721957</v>
       </c>
       <c r="I23">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="J23">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>16.893533</v>
       </c>
       <c r="O23">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P23">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q23">
-        <v>83.96886466758278</v>
+        <v>121.4869462671201</v>
       </c>
       <c r="R23">
-        <v>755.719782008245</v>
+        <v>1093.382516404081</v>
       </c>
       <c r="S23">
-        <v>0.002524602532018355</v>
+        <v>0.003223129728556001</v>
       </c>
       <c r="T23">
-        <v>0.002524602532018355</v>
+        <v>0.003223129728556</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.91142166666667</v>
+        <v>21.57398566666667</v>
       </c>
       <c r="H24">
-        <v>44.734265</v>
+        <v>64.721957</v>
       </c>
       <c r="I24">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="J24">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N24">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O24">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P24">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q24">
-        <v>29.20742410878055</v>
+        <v>166.2985667398242</v>
       </c>
       <c r="R24">
-        <v>262.866816979025</v>
+        <v>1496.687100658418</v>
       </c>
       <c r="S24">
-        <v>0.0008781485512597204</v>
+        <v>0.004412011913583245</v>
       </c>
       <c r="T24">
-        <v>0.0008781485512597201</v>
+        <v>0.004412011913583244</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.91142166666667</v>
+        <v>21.57398566666667</v>
       </c>
       <c r="H25">
-        <v>44.734265</v>
+        <v>64.721957</v>
       </c>
       <c r="I25">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="J25">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N25">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O25">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P25">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q25">
-        <v>17.53822267794056</v>
+        <v>29.2598762696449</v>
       </c>
       <c r="R25">
-        <v>157.844004101465</v>
+        <v>263.338886426804</v>
       </c>
       <c r="S25">
-        <v>0.0005273030849603015</v>
+        <v>0.0007762840367326512</v>
       </c>
       <c r="T25">
-        <v>0.0005273030849603014</v>
+        <v>0.000776284036732651</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.91142166666667</v>
+        <v>21.57398566666667</v>
       </c>
       <c r="H26">
-        <v>44.734265</v>
+        <v>64.721957</v>
       </c>
       <c r="I26">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="J26">
-        <v>0.1870756632601971</v>
+        <v>0.2679994279925593</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N26">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O26">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P26">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q26">
-        <v>48.66451314294833</v>
+        <v>90.00008094437646</v>
       </c>
       <c r="R26">
-        <v>437.980618286535</v>
+        <v>810.0007284993882</v>
       </c>
       <c r="S26">
-        <v>0.001463144149757201</v>
+        <v>0.002387762186617539</v>
       </c>
       <c r="T26">
-        <v>0.001463144149757201</v>
+        <v>0.002387762186617538</v>
       </c>
     </row>
   </sheetData>
